--- a/17 - Análise dos Eventos para cada Cenário.xlsx
+++ b/17 - Análise dos Eventos para cada Cenário.xlsx
@@ -11,7 +11,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="32">
+  <si>
+    <t>Análise dos Eventos para Cada Cenário</t>
+  </si>
   <si>
     <t>Externo</t>
   </si>
@@ -82,50 +85,61 @@
     <t>Realizar visita</t>
   </si>
   <si>
-    <t>Técnico fornece parecer técnico</t>
-  </si>
-  <si>
-    <t>Atendente analisa proposta</t>
+    <t xml:space="preserve">Técnico realiza visita </t>
+  </si>
+  <si>
+    <t>Atendente recebe validação</t>
   </si>
   <si>
     <t>x(6)</t>
   </si>
   <si>
+    <t>Atendente realiza orçamento</t>
+  </si>
+  <si>
+    <t>x(7)</t>
+  </si>
+  <si>
     <t>Atendente negocia orçamento</t>
   </si>
   <si>
-    <t>x(7)</t>
-  </si>
-  <si>
     <t>x(8)</t>
+  </si>
+  <si>
+    <t>x(9)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
+      <b/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font/>
     <font>
       <b/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
-    <font/>
     <font>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -156,6 +170,12 @@
         <bgColor rgb="FFD5A6BD"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="8">
     <border/>
@@ -163,6 +183,22 @@
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -177,25 +213,9 @@
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
@@ -237,58 +257,67 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="23">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="2" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="5" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="5" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="5" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="4" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="4" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="4" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="4" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="4" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="4" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="6" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="7" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="4" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="4" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="4" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="4" fillId="6" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -509,236 +538,261 @@
     <col customWidth="1" min="4" max="4" width="41.57"/>
   </cols>
   <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
     <row r="2">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F2" s="3"/>
-      <c r="G2" s="2" t="s">
+      <c r="A2" s="2"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="4"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="1"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" s="3"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="5"/>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="5" t="s">
+      <c r="A3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="B3" s="4"/>
+      <c r="C3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="D3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="E3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="F3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="G3" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="H3" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="6" t="s">
+      <c r="I3" s="8" t="s">
         <v>10</v>
       </c>
+      <c r="J3" s="8" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="4">
-      <c r="A4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="8" t="s">
+      <c r="A4" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="9">
+      <c r="B4" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="11">
         <v>1.0</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="13"/>
+      <c r="F4" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="16"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="17"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="11">
+        <v>2.0</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="13"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="16"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="17"/>
+      <c r="B6" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="11">
+        <v>3.0</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="13"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="16"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="17"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="11">
+        <v>4.0</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="J7" s="20"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="18"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="11">
+        <v>5.0</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="20" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="11"/>
-      <c r="F4" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="14"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="15"/>
-      <c r="B5" s="16"/>
-      <c r="C5" s="9">
-        <v>2.0</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" s="11"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="14"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="15"/>
-      <c r="B6" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="9">
-        <v>3.0</v>
-      </c>
-      <c r="D6" s="10" t="s">
+      <c r="C9" s="11">
+        <v>6.0</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="I9" s="19"/>
+      <c r="J9" s="16"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="17"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="11">
+        <v>7.0</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="14"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="16"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="17"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="11">
+        <v>8.0</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" s="14"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="16"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="17"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="11">
+        <v>9.0</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="13"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="16"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="18"/>
+      <c r="B13" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="C13" s="11">
+        <v>10.0</v>
+      </c>
+      <c r="D13" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="11"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="14"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="15"/>
-      <c r="B7" s="15"/>
-      <c r="C7" s="9">
-        <v>4.0</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="J7" s="18"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="16"/>
-      <c r="B8" s="16"/>
-      <c r="C8" s="9">
-        <v>5.0</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="18" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="9">
-        <v>6.0</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="I9" s="17"/>
-      <c r="J9" s="14"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="15"/>
-      <c r="B10" s="15"/>
-      <c r="C10" s="9">
-        <v>7.0</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="E10" s="12"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="14"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="15"/>
-      <c r="B11" s="16"/>
-      <c r="C11" s="9">
-        <v>8.0</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="F11" s="11"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="14"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="16"/>
-      <c r="B12" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" s="9">
-        <v>9.0</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="14"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="16"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="10">
+    <mergeCell ref="A4:A8"/>
+    <mergeCell ref="A9:A13"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:C2"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
     <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:A8"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="B6:B8"/>
-    <mergeCell ref="A9:A12"/>
-    <mergeCell ref="B9:B11"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/17 - Análise dos Eventos para cada Cenário.xlsx
+++ b/17 - Análise dos Eventos para cada Cenário.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\13\Desktop\AC 5\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\13\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -104,9 +104,6 @@
     <t>Técnico realiza visita</t>
   </si>
   <si>
-    <t>Atendente recebe validação</t>
-  </si>
-  <si>
     <t>x(6)</t>
   </si>
   <si>
@@ -141,6 +138,9 @@
   </si>
   <si>
     <t>x(13)</t>
+  </si>
+  <si>
+    <t>Cliente envia validação</t>
   </si>
 </sst>
 </file>
@@ -587,6 +587,20 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -596,6 +610,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -605,28 +622,11 @@
     <xf numFmtId="0" fontId="1" fillId="14" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
@@ -914,7 +914,7 @@
   <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -923,42 +923,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
       <c r="K1" s="7"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="31"/>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
+      <c r="A2" s="28"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
       <c r="D2" s="21"/>
-      <c r="E2" s="30" t="s">
+      <c r="E2" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30" t="s">
+      <c r="F2" s="27"/>
+      <c r="G2" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
       <c r="J2" s="1"/>
       <c r="K2" s="7"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="30"/>
+      <c r="B3" s="27"/>
       <c r="C3" s="20" t="s">
         <v>4</v>
       </c>
@@ -986,10 +986,10 @@
       <c r="K3" s="7"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="26" t="s">
+      <c r="A4" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="25" t="s">
+      <c r="B4" s="31" t="s">
         <v>13</v>
       </c>
       <c r="C4" s="22">
@@ -1009,8 +1009,8 @@
       <c r="K4" s="7"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="26"/>
-      <c r="B5" s="25"/>
+      <c r="A5" s="33"/>
+      <c r="B5" s="31"/>
       <c r="C5" s="22">
         <v>2</v>
       </c>
@@ -1028,8 +1028,8 @@
       <c r="K5" s="7"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="26"/>
-      <c r="B6" s="25" t="s">
+      <c r="A6" s="33"/>
+      <c r="B6" s="31" t="s">
         <v>18</v>
       </c>
       <c r="C6" s="22">
@@ -1049,8 +1049,8 @@
       <c r="K6" s="7"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="26"/>
-      <c r="B7" s="25"/>
+      <c r="A7" s="33"/>
+      <c r="B7" s="31"/>
       <c r="C7" s="22">
         <v>4</v>
       </c>
@@ -1061,15 +1061,15 @@
       <c r="F7" s="3"/>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
-      <c r="I7" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J7" s="5"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="K7" s="7"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="26"/>
-      <c r="B8" s="25"/>
+      <c r="A8" s="33"/>
+      <c r="B8" s="31"/>
       <c r="C8" s="22">
         <v>5</v>
       </c>
@@ -1087,10 +1087,10 @@
       <c r="K8" s="7"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="26" t="s">
+      <c r="A9" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="25" t="s">
+      <c r="B9" s="31" t="s">
         <v>13</v>
       </c>
       <c r="C9" s="22">
@@ -1110,18 +1110,18 @@
       <c r="K9" s="7"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="26"/>
-      <c r="B10" s="25"/>
+      <c r="A10" s="33"/>
+      <c r="B10" s="31"/>
       <c r="C10" s="22">
         <v>7</v>
       </c>
       <c r="D10" s="21" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
       <c r="G10" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
@@ -1129,18 +1129,18 @@
       <c r="K10" s="7"/>
     </row>
     <row r="11" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="26"/>
-      <c r="B11" s="25"/>
+      <c r="A11" s="33"/>
+      <c r="B11" s="31"/>
       <c r="C11" s="22">
         <v>8</v>
       </c>
       <c r="D11" s="21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
@@ -1148,16 +1148,16 @@
       <c r="K11" s="7"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="26"/>
-      <c r="B12" s="27"/>
+      <c r="A12" s="33"/>
+      <c r="B12" s="34"/>
       <c r="C12" s="8">
         <v>9</v>
       </c>
       <c r="D12" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" s="9" t="s">
         <v>29</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>30</v>
       </c>
       <c r="F12" s="9"/>
       <c r="G12" s="10"/>
@@ -1167,8 +1167,8 @@
       <c r="K12" s="7"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="28"/>
-      <c r="B13" s="29" t="s">
+      <c r="A13" s="35"/>
+      <c r="B13" s="37" t="s">
         <v>18</v>
       </c>
       <c r="C13" s="22">
@@ -1178,7 +1178,7 @@
         <v>19</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="4"/>
@@ -1188,13 +1188,13 @@
       <c r="K13" s="7"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="32"/>
-      <c r="B14" s="33"/>
-      <c r="C14" s="34">
+      <c r="A14" s="36"/>
+      <c r="B14" s="38"/>
+      <c r="C14" s="23">
         <v>11</v>
       </c>
-      <c r="D14" s="35" t="s">
-        <v>32</v>
+      <c r="D14" s="24" t="s">
+        <v>31</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -1207,22 +1207,22 @@
       <c r="K14" s="7"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="B15" s="24" t="s">
+      <c r="A15" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="30" t="s">
         <v>13</v>
       </c>
       <c r="C15" s="15">
         <v>12</v>
       </c>
       <c r="D15" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17" t="s">
-        <v>15</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="E15" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="17"/>
       <c r="G15" s="18"/>
       <c r="H15" s="18"/>
       <c r="I15" s="18"/>
@@ -1230,34 +1230,34 @@
       <c r="K15" s="7"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="23"/>
-      <c r="B16" s="25"/>
+      <c r="A16" s="29"/>
+      <c r="B16" s="31"/>
       <c r="C16" s="14">
         <v>13</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3" t="s">
-        <v>15</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F16" s="3"/>
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
       <c r="J16" s="5"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="23"/>
-      <c r="B17" s="36"/>
-      <c r="C17" s="37">
+      <c r="A17" s="29"/>
+      <c r="B17" s="32"/>
+      <c r="C17" s="25">
         <v>14</v>
       </c>
-      <c r="D17" s="38" t="s">
+      <c r="D17" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="E17" s="3" t="s">
         <v>36</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>37</v>
       </c>
       <c r="F17" s="3"/>
       <c r="G17" s="4"/>
@@ -1267,11 +1267,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="A3:B3"/>
     <mergeCell ref="A15:A17"/>
     <mergeCell ref="B15:B17"/>
     <mergeCell ref="B4:B5"/>
@@ -1280,6 +1275,11 @@
     <mergeCell ref="B9:B12"/>
     <mergeCell ref="A9:A14"/>
     <mergeCell ref="B13:B14"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="A3:B3"/>
   </mergeCells>
   <pageMargins left="0.51180599999999998" right="0.51180599999999998" top="0.78749999999999998" bottom="0.78749999999999998" header="0.315278" footer="0.315278"/>
   <pageSetup paperSize="9" fitToWidth="0" orientation="portrait" r:id="rId1"/>
